--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\ccp_reportcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Documents\PythonProjects\ccp_reportcard2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,7 +152,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +877,13 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -889,14 +896,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,21 +1026,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,25 +1044,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1081,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,11 +1385,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="11" customWidth="1"/>
@@ -1403,7 +1403,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="AE1" s="34"/>
       <c r="AF1" s="34"/>
     </row>
-    <row r="2" spans="1:32" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="34.5" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="AE2" s="35"/>
       <c r="AF2" s="35"/>
     </row>
-    <row r="3" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" ht="21.95" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="AE3" s="40"/>
       <c r="AF3" s="41"/>
     </row>
-    <row r="4" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="21.95" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="AE4" s="42"/>
       <c r="AF4" s="43"/>
     </row>
-    <row r="5" spans="1:32" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="41.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="AE5" s="62"/>
       <c r="AF5" s="63"/>
     </row>
-    <row r="6" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="21.95" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="AE6" s="69"/>
       <c r="AF6" s="71"/>
     </row>
-    <row r="7" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="21.95" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -1677,10 +1677,10 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
-      <c r="AF7" s="24"/>
-    </row>
-    <row r="8" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74" t="s">
+      <c r="AF7" s="27"/>
+    </row>
+    <row r="8" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A8" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1698,33 +1698,33 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="27"/>
-    </row>
-    <row r="9" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="28"/>
+    </row>
+    <row r="9" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A9" s="79"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1736,29 +1736,29 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
       <c r="AF9" s="29"/>
     </row>
-    <row r="10" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A10" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1776,54 +1776,54 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="25" t="s">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="27"/>
-    </row>
-    <row r="11" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="23"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="28"/>
+    </row>
+    <row r="11" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="30"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
@@ -1835,8 +1835,8 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="32"/>
     </row>
-    <row r="12" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74" t="s">
+    <row r="12" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A12" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1854,77 +1854,77 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="25" t="s">
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="27"/>
-    </row>
-    <row r="13" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="82"/>
-    </row>
-    <row r="14" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="28"/>
+    </row>
+    <row r="13" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="77"/>
+    </row>
+    <row r="14" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="19" t="s">
         <v>22</v>
       </c>
@@ -1953,45 +1953,45 @@
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="17"/>
-      <c r="AF14" s="24"/>
-    </row>
-    <row r="15" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
+      <c r="AF14" s="27"/>
+    </row>
+    <row r="15" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A15" s="80"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="83" t="s">
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="85"/>
-    </row>
-    <row r="16" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="93"/>
+    </row>
+    <row r="16" spans="1:32" ht="21.95" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="74.099999999999994" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2061,7 +2061,7 @@
       <c r="AE17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="74.099999999999994" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2095,7 +2095,7 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="74.099999999999994" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2129,255 +2129,255 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
+    <row r="20" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="87"/>
-    </row>
-    <row r="21" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="88" t="s">
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="95"/>
+    </row>
+    <row r="21" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A21" s="85"/>
+      <c r="B21" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="89"/>
-    </row>
-    <row r="22" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="96"/>
+    </row>
+    <row r="22" spans="1:32" ht="21.95" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="73"/>
-    </row>
-    <row r="23" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="83"/>
+    </row>
+    <row r="23" spans="1:32" ht="21.95" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="73"/>
-    </row>
-    <row r="24" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="83"/>
+    </row>
+    <row r="24" spans="1:32" ht="21.95" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="73"/>
-    </row>
-    <row r="25" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="83"/>
+    </row>
+    <row r="25" spans="1:32" ht="21.95" customHeight="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="96"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="94" t="s">
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="90"/>
+    </row>
+    <row r="26" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A26" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -2416,6 +2416,7 @@
     <mergeCell ref="W12:AF12"/>
     <mergeCell ref="W13:AF13"/>
     <mergeCell ref="M12:V12"/>
+    <mergeCell ref="M13:V13"/>
     <mergeCell ref="Z5:AF5"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="N5:Y5"/>
@@ -2432,7 +2433,6 @@
     <mergeCell ref="N3:O4"/>
     <mergeCell ref="J3:M4"/>
     <mergeCell ref="G3:I4"/>
-    <mergeCell ref="M13:V13"/>
     <mergeCell ref="W7:AF7"/>
     <mergeCell ref="W8:AF8"/>
     <mergeCell ref="W9:AF9"/>
